--- a/Resulting_Mesh_Convergence_v2.xlsx
+++ b/Resulting_Mesh_Convergence_v2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DU_P620\Desktop\Thors_Personal_Folder\femors\mesh_deform\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ABFD689-B3A0-4936-92B2-4C4A5CF9A09B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43F9EC01-DC91-4D97-9C29-AEFA81D5373D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" activeTab="8" xr2:uid="{75376A02-9BA6-4CF0-AAF2-5F32443F3936}"/>
   </bookViews>
@@ -13987,7 +13987,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
